--- a/data/trans_dic/P35A_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P35A_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha dado un atracón de alcohol en las últimas 2 semanas alguna o varias veces</t>
+          <t>Población que se ha dado un atracón de alcohol en las últimas 2 semanas alguna o varias veces (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>6,72%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,78%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6,43%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6,14%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>11,38%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>7,22%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>8,92%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,63; 18,35</t>
+          <t>5,97; 10,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,01; 16,9</t>
+          <t>5,72; 10,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,59; 17,71</t>
+          <t>6,56; 10,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,55; 25,55</t>
+          <t>12,57; 19,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,3; 13,23</t>
+          <t>8,27; 13,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,89; 17,45</t>
+          <t>8,8; 13,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 13,77</t>
+          <t>2,49; 5,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,0; 18,16</t>
+          <t>3,9; 7,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,63; 15,14</t>
+          <t>2,84; 5,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,71; 15,71</t>
+          <t>5,52; 10,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,08; 14,9</t>
+          <t>2,92; 5,65</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,89; 21,19</t>
+          <t>5,1; 8,44</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,53; 7,21</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 7,74</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>5,08; 7,68</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>9,32; 13,42</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>5,88; 8,63</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>7,47; 10,54</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>5,04%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7,48%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7,22%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>9,48%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>10,15%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,99; 28,05</t>
+          <t>9,24; 17,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,22; 22,34</t>
+          <t>8,14; 14,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,45; 28,99</t>
+          <t>11,57; 18,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,13; 28,36</t>
+          <t>11,83; 19,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 13,48</t>
+          <t>5,94; 14,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,46; 21,19</t>
+          <t>5,06; 11,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,37; 16,62</t>
+          <t>1,42; 4,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 22,11</t>
+          <t>2,14; 6,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,98; 21,08</t>
+          <t>2,57; 5,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,33; 19,74</t>
+          <t>3,6; 7,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,28; 23,25</t>
+          <t>1,67; 6,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,37; 23,48</t>
+          <t>2,72; 8,43</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5,49; 10,46</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>5,64; 9,44</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>7,73; 11,59</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>8,13; 12,55</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>4,44; 9,07</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>4,69; 8,86</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>11,47%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>15,99%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,71%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,92%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>13,43%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>12,89%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>18,6%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6,57%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,69%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>8,7%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 21,18</t>
+          <t>3,8; 14,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 23,46</t>
+          <t>4,11; 14,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,23; 28,72</t>
+          <t>7,11; 19,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>6,47; 19,86</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>7,0; 28,68</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 21,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,45; 31,19</t>
+          <t>2,22; 10,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>1,09; 6,59</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2,05; 9,68</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,8; 16,49</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>8,31; 21,0</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>7,57; 19,95</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>12,09; 26,28</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3,71; 9,86</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3,28; 8,84</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 12,77</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6,73; 14,7</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>6,35%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,54%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>7,76%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>10,76%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>7,05%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>8,35%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,34; 19,58</t>
+          <t>8,05; 12,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,4; 17,89</t>
+          <t>7,55; 10,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,44; 21,29</t>
+          <t>9,91; 13,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,35; 24,63</t>
+          <t>12,82; 17,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 12,35</t>
+          <t>8,28; 12,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,15; 16,31</t>
+          <t>8,47; 12,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,77; 14,24</t>
+          <t>2,52; 4,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,88; 17,2</t>
+          <t>3,34; 5,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,48; 16,22</t>
+          <t>3,19; 5,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,31; 16,24</t>
+          <t>5,4; 8,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,6; 17,7</t>
+          <t>2,92; 5,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,03; 20,72</t>
+          <t>4,97; 7,83</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 7,85</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 7,65</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>6,68; 8,77</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>9,43; 12,13</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 8,28</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>7,13; 9,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha dado un atracón de alcohol en las últimas 2 semanas alguna o varias veces (tasa de respuesta: 99,6%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>131857</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>124807</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>137486</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>253425</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>23931</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>25059</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>67197</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>96814</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>72310</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>133862</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>9665</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15792</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>199054</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>221621</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>209795</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>387287</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>33597</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>40851</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>98377; 175075</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>93001; 164154</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>105836; 175632</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>203957; 310745</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>18915; 30142</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>19636; 30908</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>44781; 99481</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>70828; 128414</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>51252; 103448</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>98272; 178202</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6908; 13369</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11993; 19822</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>156090; 248307</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>177446; 266660</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>173341; 262467</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>317192; 456708</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>27367; 40135</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>34222; 48273</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>170249</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>148754</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>207456</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>209933</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6785</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5617</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>34939</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>48337</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>53530</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>70561</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2150</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3362</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>205189</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>197091</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>260986</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>280495</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>8935</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>8980</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>125989; 243035</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>111146; 196143</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>158890; 256689</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>163053; 271623</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4282; 10463</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3644; 8172</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>19553; 56445</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>29260; 86459</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>35495; 78064</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>49789; 101464</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1096; 3966</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1817; 5621</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>150772; 286989</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>153841; 257665</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>212868; 319248</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>224521; 346753</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>6103; 12476</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>6511; 12281</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>33499</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>35322</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>52441</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>48221</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21117</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11708</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>19075</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>36555</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>54617</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>47030</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>71515</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>84776</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15939; 60578</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17368; 60325</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>29698; 80411</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>27210; 83537</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9160; 41603</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4402; 26574</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8299; 39189</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19661; 67603</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>30825; 81959</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>27052; 73034</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>47927; 104985</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>55929; 122076</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>335606</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>308883</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>397382</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>511579</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>30716</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>30677</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>123254</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>156860</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>144915</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>240979</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>11815</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>19154</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>458859</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>465742</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>542296</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>752558</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>42532</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>49830</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>276014; 436245</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>257824; 367832</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>337361; 468698</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>438436; 596423</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>24910; 37385</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>25009; 37288</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>90594; 158495</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>119859; 201469</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>114463; 189466</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>193076; 300730</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>8827; 15537</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>14992; 23633</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>382109; 551165</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>401261; 535888</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>467236; 612858</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>659872; 848223</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>36259; 49924</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>42549; 57753</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
